--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Ngfr</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.36661271669369</v>
+        <v>4.477828666666666</v>
       </c>
       <c r="H2">
-        <v>2.36661271669369</v>
+        <v>13.433486</v>
       </c>
       <c r="I2">
-        <v>0.6635878035078902</v>
+        <v>0.4652827882180238</v>
       </c>
       <c r="J2">
-        <v>0.6635878035078902</v>
+        <v>0.4652827882180238</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.485658947973787</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N2">
-        <v>0.485658947973787</v>
+        <v>2.083929</v>
       </c>
       <c r="O2">
-        <v>0.09334258558796031</v>
+        <v>0.1269399741689062</v>
       </c>
       <c r="P2">
-        <v>0.09334258558796031</v>
+        <v>0.1269399741689062</v>
       </c>
       <c r="Q2">
-        <v>1.149366642250844</v>
+        <v>3.110492338499334</v>
       </c>
       <c r="R2">
-        <v>1.149366642250844</v>
+        <v>27.994431046494</v>
       </c>
       <c r="S2">
-        <v>0.06194100134406182</v>
+        <v>0.0590629851176326</v>
       </c>
       <c r="T2">
-        <v>0.06194100134406182</v>
+        <v>0.0590629851176326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.36661271669369</v>
+        <v>4.477828666666666</v>
       </c>
       <c r="H3">
-        <v>2.36661271669369</v>
+        <v>13.433486</v>
       </c>
       <c r="I3">
-        <v>0.6635878035078902</v>
+        <v>0.4652827882180238</v>
       </c>
       <c r="J3">
-        <v>0.6635878035078902</v>
+        <v>0.4652827882180238</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>4.71731400284652</v>
+        <v>0.05042666666666667</v>
       </c>
       <c r="N3">
-        <v>4.71731400284652</v>
+        <v>0.15128</v>
       </c>
       <c r="O3">
-        <v>0.9066574144120396</v>
+        <v>0.009215035297398391</v>
       </c>
       <c r="P3">
-        <v>0.9066574144120396</v>
+        <v>0.009215035297398391</v>
       </c>
       <c r="Q3">
-        <v>11.16405530777379</v>
+        <v>0.2258019735644445</v>
       </c>
       <c r="R3">
-        <v>11.16405530777379</v>
+        <v>2.03221776208</v>
       </c>
       <c r="S3">
-        <v>0.6016468021638283</v>
+        <v>0.004287597316701029</v>
       </c>
       <c r="T3">
-        <v>0.6016468021638283</v>
+        <v>0.004287597316701029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.19977699719675</v>
+        <v>4.477828666666666</v>
       </c>
       <c r="H4">
-        <v>1.19977699719675</v>
+        <v>13.433486</v>
       </c>
       <c r="I4">
-        <v>0.3364121964921098</v>
+        <v>0.4652827882180238</v>
       </c>
       <c r="J4">
-        <v>0.3364121964921098</v>
+        <v>0.4652827882180238</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.485658947973787</v>
+        <v>4.727146666666667</v>
       </c>
       <c r="N4">
-        <v>0.485658947973787</v>
+        <v>14.18144</v>
       </c>
       <c r="O4">
-        <v>0.09334258558796031</v>
+        <v>0.8638449905336953</v>
       </c>
       <c r="P4">
-        <v>0.09334258558796031</v>
+        <v>0.8638449905336955</v>
       </c>
       <c r="Q4">
-        <v>0.5826824342617228</v>
+        <v>21.16735285553778</v>
       </c>
       <c r="R4">
-        <v>0.5826824342617228</v>
+        <v>190.50617569984</v>
       </c>
       <c r="S4">
-        <v>0.03140158424389848</v>
+        <v>0.4019322057836901</v>
       </c>
       <c r="T4">
-        <v>0.03140158424389848</v>
+        <v>0.4019322057836902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +708,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.19977699719675</v>
+        <v>2.528563666666667</v>
       </c>
       <c r="H5">
-        <v>1.19977699719675</v>
+        <v>7.585691000000001</v>
       </c>
       <c r="I5">
-        <v>0.3364121964921098</v>
+        <v>0.2627383137214249</v>
       </c>
       <c r="J5">
-        <v>0.3364121964921098</v>
+        <v>0.2627383137214249</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.71731400284652</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N5">
-        <v>4.71731400284652</v>
+        <v>2.083929</v>
       </c>
       <c r="O5">
-        <v>0.9066574144120396</v>
+        <v>0.1269399741689062</v>
       </c>
       <c r="P5">
-        <v>0.9066574144120396</v>
+        <v>0.1269399741689062</v>
       </c>
       <c r="Q5">
-        <v>5.659724829169379</v>
+        <v>1.756449051104334</v>
       </c>
       <c r="R5">
-        <v>5.659724829169379</v>
+        <v>15.808041459939</v>
       </c>
       <c r="S5">
-        <v>0.3050106122482113</v>
+        <v>0.03335199475697966</v>
       </c>
       <c r="T5">
-        <v>0.3050106122482113</v>
+        <v>0.03335199475697966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.528563666666667</v>
+      </c>
+      <c r="H6">
+        <v>7.585691000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.2627383137214249</v>
+      </c>
+      <c r="J6">
+        <v>0.2627383137214249</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.05042666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.15128</v>
+      </c>
+      <c r="O6">
+        <v>0.009215035297398391</v>
+      </c>
+      <c r="P6">
+        <v>0.009215035297398391</v>
+      </c>
+      <c r="Q6">
+        <v>0.1275070371644444</v>
+      </c>
+      <c r="R6">
+        <v>1.14756333448</v>
+      </c>
+      <c r="S6">
+        <v>0.002421142834921862</v>
+      </c>
+      <c r="T6">
+        <v>0.002421142834921862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.528563666666667</v>
+      </c>
+      <c r="H7">
+        <v>7.585691000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.2627383137214249</v>
+      </c>
+      <c r="J7">
+        <v>0.2627383137214249</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.727146666666667</v>
+      </c>
+      <c r="N7">
+        <v>14.18144</v>
+      </c>
+      <c r="O7">
+        <v>0.8638449905336953</v>
+      </c>
+      <c r="P7">
+        <v>0.8638449905336955</v>
+      </c>
+      <c r="Q7">
+        <v>11.95289130833778</v>
+      </c>
+      <c r="R7">
+        <v>107.57602177504</v>
+      </c>
+      <c r="S7">
+        <v>0.2269651761295234</v>
+      </c>
+      <c r="T7">
+        <v>0.2269651761295234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.617494</v>
+      </c>
+      <c r="H8">
+        <v>7.852482</v>
+      </c>
+      <c r="I8">
+        <v>0.2719788980605514</v>
+      </c>
+      <c r="J8">
+        <v>0.2719788980605514</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6946430000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.083929</v>
+      </c>
+      <c r="O8">
+        <v>0.1269399741689062</v>
+      </c>
+      <c r="P8">
+        <v>0.1269399741689062</v>
+      </c>
+      <c r="Q8">
+        <v>1.818223884642</v>
+      </c>
+      <c r="R8">
+        <v>16.364014961778</v>
+      </c>
+      <c r="S8">
+        <v>0.03452499429429397</v>
+      </c>
+      <c r="T8">
+        <v>0.03452499429429397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.617494</v>
+      </c>
+      <c r="H9">
+        <v>7.852482</v>
+      </c>
+      <c r="I9">
+        <v>0.2719788980605514</v>
+      </c>
+      <c r="J9">
+        <v>0.2719788980605514</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05042666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.15128</v>
+      </c>
+      <c r="O9">
+        <v>0.009215035297398391</v>
+      </c>
+      <c r="P9">
+        <v>0.009215035297398391</v>
+      </c>
+      <c r="Q9">
+        <v>0.13199149744</v>
+      </c>
+      <c r="R9">
+        <v>1.18792347696</v>
+      </c>
+      <c r="S9">
+        <v>0.0025062951457755</v>
+      </c>
+      <c r="T9">
+        <v>0.0025062951457755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.617494</v>
+      </c>
+      <c r="H10">
+        <v>7.852482</v>
+      </c>
+      <c r="I10">
+        <v>0.2719788980605514</v>
+      </c>
+      <c r="J10">
+        <v>0.2719788980605514</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.727146666666667</v>
+      </c>
+      <c r="N10">
+        <v>14.18144</v>
+      </c>
+      <c r="O10">
+        <v>0.8638449905336953</v>
+      </c>
+      <c r="P10">
+        <v>0.8638449905336955</v>
+      </c>
+      <c r="Q10">
+        <v>12.37327803712</v>
+      </c>
+      <c r="R10">
+        <v>111.35950233408</v>
+      </c>
+      <c r="S10">
+        <v>0.2349476086204819</v>
+      </c>
+      <c r="T10">
+        <v>0.2349476086204819</v>
       </c>
     </row>
   </sheetData>
